--- a/Design Sistem.xlsx
+++ b/Design Sistem.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B85D5-307E-4413-8674-3B7C6B0EEF66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="5890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="5890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin LSP" sheetId="1" r:id="rId1"/>
@@ -29,6 +30,39 @@
     <t>Pengelola User</t>
   </si>
   <si>
+    <t>Skema Sertifikasi</t>
+  </si>
+  <si>
+    <t>Skema Sertifikasi - Unit Kompetensi</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t>Unit Kompetensi</t>
+  </si>
+  <si>
+    <t>Elemen Kompetensi</t>
+  </si>
+  <si>
+    <t>Kriteria Unjuk Kerja</t>
+  </si>
+  <si>
+    <t>Verifikasi</t>
+  </si>
+  <si>
+    <t>Verifikasi APL-01</t>
+  </si>
+  <si>
+    <t>Verifikasi APL-02</t>
+  </si>
+  <si>
+    <t>Status Administrasi</t>
+  </si>
+  <si>
+    <t>Ubah Password</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">- </t>
     </r>
@@ -36,7 +70,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -46,7 +80,125 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SKEMA [Utama]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SKEMA [Modal] - Add, Edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UK [Utama]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SKEMA [Modal]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UK [Modal] - Add, Edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -58,7 +210,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -68,7 +220,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -80,7 +232,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -90,7 +242,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -106,7 +258,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -116,7 +268,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -128,7 +280,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -138,7 +290,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -150,7 +302,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -160,7 +312,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -169,9 +321,6 @@
     </r>
   </si>
   <si>
-    <t>Skema Sertifikasi</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">- </t>
     </r>
@@ -179,7 +328,29 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by UK, EK [Dropdown]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -189,19 +360,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SKEMA [Utama]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KUK [Utama]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -211,22 +382,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SKEMA [Modal] - Add, Edit</t>
-    </r>
-  </si>
-  <si>
-    <t>Skema Sertifikasi - Unit Kompetensi</t>
-  </si>
-  <si>
-    <t>Master Data</t>
-  </si>
-  <si>
-    <t>Unit Kompetensi</t>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KUK [Modal] - Add, Edit</t>
+    </r>
   </si>
   <si>
     <r>
@@ -236,7 +398,29 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by UK [Dropdown]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -246,19 +430,45 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> UK [Utama]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EK [Utama]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EK [Modal] - Add, Edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -268,19 +478,41 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SKEMA [Modal]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> APL-01 [Utama]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tabel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA [Modal]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -290,19 +522,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> UK [Modal] - Add, Edit</t>
-    </r>
-  </si>
-  <si>
-    <t>Elemen Kompetensi</t>
-  </si>
-  <si>
-    <t>Kriteria Unjuk Kerja</t>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> APL-01 [PAGE] - Verif</t>
+    </r>
   </si>
   <si>
     <r>
@@ -312,29 +538,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cari</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by UK [Dropdown]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -344,19 +548,41 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EK [Utama]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> APL-02 [Utama]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tabel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SA [Modal]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -366,12 +592,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> EK [Modal] - Add, Edit</t>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> APL-02 [PAGE] - Verif</t>
     </r>
   </si>
   <si>
@@ -382,29 +608,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cari</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by UK, EK [Dropdown]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -414,19 +618,41 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> KUK [Utama]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ADMINISTRASI [Utama]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SA [Modal]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -436,229 +662,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> KUK [Modal] - Add, Edit</t>
-    </r>
-  </si>
-  <si>
-    <t>Verifikasi</t>
-  </si>
-  <si>
-    <t>Verifikasi APL-01</t>
-  </si>
-  <si>
-    <t>Verifikasi APL-02</t>
-  </si>
-  <si>
-    <t>Status Administrasi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tabel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> APL-01 [Utama]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tabel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SA [Modal]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> APL-01 [PAGE] - Verif</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tabel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> APL-02 [Utama]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tabel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SA [Modal]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> APL-02 [PAGE] - Verif</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tabel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ADMINISTRASI [Utama]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tabel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SA [Modal]
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -667,14 +671,11 @@
     </r>
   </si>
   <si>
-    <t>Ubah Password</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -684,7 +685,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -696,8 +697,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,8 +727,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +753,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,11 +889,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -845,9 +900,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,6 +918,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,11 +1219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,97 +1233,98 @@
     <col min="4" max="4" width="36.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
+    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
+    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Design Sistem.xlsx
+++ b/Design Sistem.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B85D5-307E-4413-8674-3B7C6B0EEF66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6ADBFB-0D85-4D0C-8EDC-F7B7212FA379}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="5890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="5890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin LSP" sheetId="1" r:id="rId1"/>
+    <sheet name="Asesi" sheetId="2" r:id="rId2"/>
+    <sheet name="Asesor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Pengelola User</t>
   </si>
@@ -691,6 +693,58 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Ubah Password [Modal] - Edit</t>
+    </r>
+  </si>
+  <si>
+    <t>Bukti Kelengkapan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BUKTI [Utama]
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BUKTI [Modal] 
+- Add, Edit</t>
     </r>
   </si>
 </sst>
@@ -799,7 +853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -885,11 +939,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -900,6 +963,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,28 +1003,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1234,97 +1307,97 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="6"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="7"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1338,4 +1411,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F88A2AD-014E-4AD0-BD61-E3E5BCB6C8E9}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F43403B-61C0-444E-B755-51D2FD1B9533}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>